--- a/saybapco/report/Report_by_BAPCO.xlsx
+++ b/saybapco/report/Report_by_BAPCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilo/python/saybapco/saybapco/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{16316415-B55E-F54F-B356-8B45E6211514}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1F572A8B-D41E-BF4D-94DC-44FADDFB47AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="34960" windowHeight="23020"/>
   </bookViews>
@@ -2498,7 +2498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr transitionEvaluation="1" transitionEntry="1">
+  <sheetPr transitionEvaluation="1" transitionEntry="1" filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
@@ -2506,7 +2506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2551,7 +2551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="C39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>116</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>119</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>122</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>125</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>152</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>155</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>158</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>179</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>182</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>185</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>188</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>191</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>196</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>202</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>205</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>210</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>213</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>216</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>218</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>221</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>224</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>227</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>230</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>233</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>236</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>239</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>242</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>248</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>251</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>254</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>257</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>260</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>263</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>266</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>269</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>272</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>275</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>278</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>281</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>284</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>287</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>290</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>293</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>296</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>299</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>302</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>305</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>308</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>312</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>314</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>317</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>320</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>323</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>326</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>329</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>332</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>335</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>338</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>341</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>344</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>345</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>348</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>351</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>354</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>357</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>360</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>363</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>366</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>369</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>372</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>375</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>377</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>380</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>383</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>386</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>388</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>391</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>394</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>397</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>400</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>403</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>406</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>409</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>412</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>415</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>417</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>419</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>422</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>424</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>427</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>430</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>433</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>435</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>438</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>441</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>444</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>446</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>448</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>451</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>454</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>457</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>459</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>462</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>465</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>468</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>472</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>475</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>478</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>481</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>485</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>488</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>491</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>493</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>495</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>498</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>501</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>504</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>507</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>510</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>513</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>516</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>519</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>522</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>525</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>528</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>531</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>534</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>537</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>540</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>543</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>546</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>549</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>552</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>555</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>558</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>561</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>564</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>567</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>570</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>573</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>575</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>578</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>581</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>584</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>587</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>590</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>593</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>596</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>599</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>602</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>605</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>608</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>611</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>614</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>617</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>620</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>623</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>626</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>629</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>632</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>635</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>637</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>640</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>643</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>646</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>649</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>652</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>655</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>658</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>661</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>664</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>667</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>670</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>673</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>676</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>679</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>682</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>685</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>688</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>691</v>
       </c>
@@ -9454,7 +9454,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I239"/>
+  <autoFilter ref="A1:I239">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BMP-ROC-TRE-000004"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
   <headerFooter alignWithMargins="0"/>
